--- a/erp/wwwroot/hr/DSNS T10-2019.xlsx
+++ b/erp/wwwroot/hr/DSNS T10-2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuant\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuant\OneDrive\Máy tính\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D77" authorId="1" shapeId="0">
+    <comment ref="D78" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E108" authorId="1" shapeId="0">
+    <comment ref="E109" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D122" authorId="2" shapeId="0">
+    <comment ref="D123" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E151" authorId="1" shapeId="0">
+    <comment ref="E152" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D167" authorId="1" shapeId="0">
+    <comment ref="D168" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D186" authorId="2" shapeId="0">
+    <comment ref="D187" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D187" authorId="2" shapeId="0">
+    <comment ref="D188" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D188" authorId="2" shapeId="0">
+    <comment ref="D189" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C211" authorId="0" shapeId="0">
+    <comment ref="C212" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="551">
   <si>
     <t>TT</t>
   </si>
@@ -1943,6 +1943,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Nguyễn Đỗ Quỳnh Phương </t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hiếu</t>
+  </si>
+  <si>
+    <t>Hợp tác về nghiên cứu KHUD</t>
+  </si>
+  <si>
+    <t>HT01</t>
   </si>
 </sst>
 </file>
@@ -3352,10 +3361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:E276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
@@ -3950,17 +3959,14 @@
       <c r="A39" s="4">
         <v>2</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C39" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="25">
-        <v>43700</v>
+      <c r="B39" s="118" t="s">
+        <v>550</v>
+      </c>
+      <c r="C39" s="118" t="s">
+        <v>548</v>
+      </c>
+      <c r="D39" s="118" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3968,748 +3974,748 @@
         <v>3</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C40" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="55" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>90</v>
       </c>
       <c r="E40" s="25">
-        <v>43241</v>
+        <v>43700</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="4">
         <v>4</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="25">
+        <v>43241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="4">
+        <v>5</v>
+      </c>
+      <c r="B42" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C42" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="55" t="str">
+      <c r="D42" s="55" t="str">
         <f>'[1]THANG B.LUONG'!B41</f>
         <v>NV Thu mua MMTB</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E42" s="57">
         <v>43620</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="30"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" s="30"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31" t="s">
         <v>529</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="4">
-        <v>1</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" s="25">
-        <v>42515</v>
-      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E44" s="25">
-        <v>43556</v>
+        <v>42515</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>113</v>
       </c>
       <c r="E45" s="25">
-        <v>43571</v>
+        <v>43556</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="4">
-        <v>4</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="E46" s="58">
-        <v>43235</v>
+        <v>3</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="25">
+        <v>43571</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="4">
+        <v>4</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="E47" s="58">
+        <v>43235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="4">
         <v>5</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B48" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C48" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D48" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E48" s="25">
         <v>43629</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="30"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="30"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="4">
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="4">
         <v>1</v>
       </c>
-      <c r="B49" s="36" t="s">
+      <c r="B50" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C50" s="37" t="s">
         <v>545</v>
       </c>
-      <c r="D49" s="38" t="s">
+      <c r="D50" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="25">
+      <c r="E50" s="25">
         <v>42887</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="48">
-        <v>2</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" s="45">
-        <v>43682</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C51" s="49" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D51" s="44" t="s">
         <v>127</v>
       </c>
       <c r="E51" s="45">
+        <v>43682</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="48">
+        <v>3</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D52" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="45">
         <v>43711</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="4">
+    <row r="53" spans="1:5">
+      <c r="A53" s="4">
         <v>4</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B53" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="54" t="s">
+      <c r="C53" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D53" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E52" s="25">
+      <c r="E53" s="25">
         <v>43040</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="30"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" s="30"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31" t="s">
         <v>493</v>
       </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="33"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="4">
+      <c r="D54" s="32"/>
+      <c r="E54" s="33"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="4">
         <v>1</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B55" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C55" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="55" t="str">
+      <c r="D55" s="55" t="str">
         <f>'[1]THANG B.LUONG'!B56</f>
         <v>GIÁM ĐỐC TTNC</v>
       </c>
-      <c r="E54" s="25">
+      <c r="E55" s="25">
         <v>43192</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="4">
+    <row r="56" spans="1:5">
+      <c r="A56" s="4">
         <v>2</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B56" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C56" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="55" t="str">
+      <c r="D56" s="55" t="str">
         <f>'[1]THANG B.LUONG'!B57</f>
         <v>CV nghiên cứu KHCN</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E56" s="25">
         <v>43228</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="4">
+    <row r="57" spans="1:5">
+      <c r="A57" s="4">
         <v>3</v>
       </c>
-      <c r="B56" s="36" t="s">
+      <c r="B57" s="36" t="s">
         <v>495</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="C57" s="51" t="s">
         <v>496</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D57" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E56" s="25"/>
-    </row>
-    <row r="57" spans="1:5" ht="26">
-      <c r="A57" s="2"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3" t="s">
+      <c r="E57" s="25"/>
+    </row>
+    <row r="58" spans="1:5" ht="26">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="4">
-        <v>1</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="E58" s="6">
-        <v>42086</v>
-      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E59" s="9">
-        <v>41706</v>
+        <v>463</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E59" s="6">
+        <v>42086</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>385</v>
       </c>
       <c r="E60" s="9">
-        <v>42413</v>
+        <v>41706</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="4">
-        <v>4</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>470</v>
+        <v>3</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>468</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>448</v>
+        <v>385</v>
       </c>
       <c r="E61" s="9">
-        <v>43626</v>
+        <v>42413</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>448</v>
       </c>
       <c r="E62" s="9">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="4">
+        <v>5</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="E63" s="9">
         <v>43668</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A63" s="135" t="s">
+    <row r="64" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A64" s="135" t="s">
         <v>537</v>
       </c>
-      <c r="B63" s="136"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="137"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="4">
+      <c r="B64" s="136"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="136"/>
+      <c r="E64" s="137"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="4">
         <v>1</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B65" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C65" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D65" s="35" t="s">
         <v>485</v>
       </c>
-      <c r="E64" s="25">
+      <c r="E65" s="25">
         <v>39471</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15" customHeight="1">
-      <c r="B65" s="122"/>
-      <c r="C65" s="121" t="s">
+    <row r="66" spans="1:5" ht="15" customHeight="1">
+      <c r="B66" s="122"/>
+      <c r="C66" s="121" t="s">
         <v>533</v>
       </c>
-      <c r="D65" s="122"/>
-      <c r="E65" s="123"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="30"/>
-      <c r="B66" s="31"/>
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="122"/>
+      <c r="E66" s="123"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="30"/>
+      <c r="B67" s="31"/>
+      <c r="D67" s="32" t="s">
         <v>535</v>
       </c>
-      <c r="E66" s="33"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="1">
+      <c r="E67" s="33"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
         <v>1</v>
       </c>
-      <c r="B67" s="65" t="s">
+      <c r="B68" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="C67" s="74" t="s">
+      <c r="C68" s="74" t="s">
         <v>184</v>
       </c>
-      <c r="D67" s="67" t="s">
+      <c r="D68" s="67" t="s">
         <v>502</v>
       </c>
-      <c r="E67" s="68">
+      <c r="E68" s="68">
         <v>42339</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="30"/>
-      <c r="B68" s="31"/>
-      <c r="D68" s="32" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" s="30"/>
+      <c r="B69" s="31"/>
+      <c r="D69" s="32" t="s">
         <v>536</v>
       </c>
-      <c r="E68" s="33"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="4">
-        <v>2</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>492</v>
-      </c>
-      <c r="E69" s="25">
-        <v>39083</v>
-      </c>
+      <c r="E69" s="33"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="4">
         <v>2</v>
       </c>
       <c r="B70" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="E70" s="25">
+        <v>39083</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="4">
+        <v>2</v>
+      </c>
+      <c r="B71" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="C70" s="53" t="s">
+      <c r="C71" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="D70" s="38" t="s">
+      <c r="D71" s="38" t="s">
         <v>534</v>
       </c>
-      <c r="E70" s="25">
+      <c r="E71" s="25">
         <v>43441</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="13.5" customHeight="1">
-      <c r="B71" s="125"/>
-      <c r="C71" s="124" t="s">
+    <row r="72" spans="1:5" ht="13.5" customHeight="1">
+      <c r="B72" s="125"/>
+      <c r="C72" s="124" t="s">
         <v>484</v>
       </c>
-      <c r="D71" s="125"/>
-      <c r="E71" s="126"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="4">
+      <c r="D72" s="125"/>
+      <c r="E72" s="126"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="4">
         <v>1</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B73" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="C72" s="37" t="s">
+      <c r="C73" s="37" t="s">
         <v>225</v>
       </c>
-      <c r="D72" s="38" t="s">
+      <c r="D73" s="38" t="s">
         <v>483</v>
       </c>
-      <c r="E72" s="25">
+      <c r="E73" s="25">
         <v>43132</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="30"/>
-      <c r="B73" s="31"/>
-      <c r="D73" s="31" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="30"/>
+      <c r="B74" s="31"/>
+      <c r="D74" s="31" t="s">
         <v>531</v>
       </c>
-      <c r="E73" s="33"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="4">
+      <c r="E74" s="33"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="4">
         <v>1</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B75" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="53" t="s">
+      <c r="C75" s="53" t="s">
         <v>142</v>
       </c>
-      <c r="D74" s="38" t="str">
+      <c r="D75" s="38" t="str">
         <f>'[1]THANG B.LUONG'!B220</f>
         <v>Tổ trưởng thống kê SX</v>
       </c>
-      <c r="E74" s="25">
+      <c r="E75" s="25">
         <v>43619</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="4">
-        <v>2</v>
-      </c>
-      <c r="B75" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C75" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="E75" s="25">
-        <v>42810</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="C76" s="53" t="s">
+        <v>144</v>
       </c>
       <c r="D76" s="38" t="s">
         <v>145</v>
       </c>
       <c r="E76" s="25">
-        <v>43115</v>
+        <v>42810</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77" s="36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D77" s="38" t="s">
-        <v>498</v>
+        <v>145</v>
       </c>
       <c r="E77" s="25">
-        <v>43383</v>
+        <v>43115</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B78" s="36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D78" s="38" t="s">
         <v>498</v>
       </c>
       <c r="E78" s="25">
-        <v>43083</v>
+        <v>43383</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D79" s="38" t="s">
-        <v>145</v>
+        <v>498</v>
       </c>
       <c r="E79" s="25">
-        <v>43298</v>
+        <v>43083</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B80" s="36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D80" s="38" t="s">
-        <v>499</v>
+        <v>145</v>
       </c>
       <c r="E80" s="25">
-        <v>43467</v>
+        <v>43298</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="4">
+        <v>7</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>499</v>
+      </c>
+      <c r="E81" s="25">
+        <v>43467</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="4">
         <v>8</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B82" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C81" s="53" t="s">
+      <c r="C82" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="D81" s="38" t="s">
+      <c r="D82" s="38" t="s">
         <v>498</v>
       </c>
-      <c r="E81" s="25">
+      <c r="E82" s="25">
         <v>40868</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="30"/>
-      <c r="B82" s="31"/>
-      <c r="D82" s="32" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" s="30"/>
+      <c r="B83" s="31"/>
+      <c r="D83" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="E82" s="33"/>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="60">
-        <v>3</v>
-      </c>
-      <c r="B83" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="C83" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="D83" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="E83" s="64">
-        <v>42618</v>
-      </c>
+      <c r="E83" s="33"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="60">
         <v>3</v>
       </c>
       <c r="B84" s="61" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C84" s="62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D84" s="63" t="s">
         <v>161</v>
       </c>
       <c r="E84" s="64">
+        <v>42618</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="60">
+        <v>3</v>
+      </c>
+      <c r="B85" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="D85" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="E85" s="64">
         <v>43647</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="30"/>
-      <c r="B85" s="31"/>
-      <c r="D85" s="32" t="s">
+    <row r="86" spans="1:5">
+      <c r="A86" s="30"/>
+      <c r="B86" s="31"/>
+      <c r="D86" s="32" t="s">
         <v>532</v>
       </c>
-      <c r="E85" s="33"/>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="1">
+      <c r="E86" s="33"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
         <v>2</v>
       </c>
-      <c r="B86" s="65" t="s">
+      <c r="B87" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="C86" s="66" t="s">
+      <c r="C87" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="D86" s="67" t="s">
+      <c r="D87" s="67" t="s">
         <v>500</v>
       </c>
-      <c r="E86" s="68">
+      <c r="E87" s="68">
         <v>41611</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="4">
-        <v>3</v>
-      </c>
-      <c r="B87" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="C87" s="53" t="s">
-        <v>169</v>
-      </c>
-      <c r="D87" s="38" t="s">
-        <v>501</v>
-      </c>
-      <c r="E87" s="25">
-        <v>42201</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C88" s="53" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D88" s="38" t="s">
-        <v>172</v>
+        <v>501</v>
       </c>
       <c r="E88" s="25">
-        <v>42065</v>
+        <v>42201</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="C89" s="52" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="C89" s="53" t="s">
+        <v>171</v>
       </c>
       <c r="D89" s="38" t="s">
         <v>172</v>
       </c>
       <c r="E89" s="25">
-        <v>41108</v>
+        <v>42065</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4717,120 +4723,120 @@
         <v>5</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C90" s="52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D90" s="38" t="s">
         <v>172</v>
       </c>
       <c r="E90" s="25">
-        <v>43451</v>
+        <v>41108</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="69">
-        <v>2</v>
-      </c>
-      <c r="B91" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="C91" s="71" t="s">
-        <v>178</v>
+      <c r="A91" s="4">
+        <v>5</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" s="52" t="s">
+        <v>176</v>
       </c>
       <c r="D91" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="E91" s="72">
+      <c r="E91" s="25">
+        <v>43451</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="69">
+        <v>2</v>
+      </c>
+      <c r="B92" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="E92" s="72">
         <v>42419</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="30"/>
-      <c r="B92" s="31"/>
-      <c r="D92" s="32" t="s">
+    <row r="93" spans="1:5">
+      <c r="A93" s="30"/>
+      <c r="B93" s="31"/>
+      <c r="D93" s="32" t="s">
         <v>538</v>
       </c>
-      <c r="E92" s="33"/>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="75">
+      <c r="E93" s="33"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="75">
         <v>1</v>
       </c>
-      <c r="B93" s="76" t="s">
+      <c r="B94" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="73" t="s">
+      <c r="C94" s="73" t="s">
         <v>186</v>
       </c>
-      <c r="D93" s="77" t="s">
+      <c r="D94" s="77" t="s">
         <v>503</v>
       </c>
-      <c r="E93" s="78">
+      <c r="E94" s="78">
         <v>43444</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="79">
+    <row r="95" spans="1:5">
+      <c r="A95" s="79">
         <v>2</v>
       </c>
-      <c r="B94" s="80" t="s">
+      <c r="B95" s="80" t="s">
         <v>187</v>
       </c>
-      <c r="C94" s="81" t="s">
+      <c r="C95" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="D94" s="82" t="s">
+      <c r="D95" s="82" t="s">
         <v>189</v>
       </c>
-      <c r="E94" s="83">
+      <c r="E95" s="83">
         <v>42424</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="4">
+    <row r="96" spans="1:5">
+      <c r="A96" s="4">
         <v>3</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B96" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="C95" s="53" t="s">
+      <c r="C96" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="D95" s="84" t="s">
+      <c r="D96" s="84" t="s">
         <v>504</v>
       </c>
-      <c r="E95" s="25">
+      <c r="E96" s="25">
         <v>42417</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="7">
-        <v>4</v>
-      </c>
-      <c r="B96" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="C96" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="D96" s="86" t="s">
-        <v>189</v>
-      </c>
-      <c r="E96" s="41">
-        <v>43236</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B97" s="85" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D97" s="86" t="s">
         <v>189</v>
@@ -4840,167 +4846,167 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="4">
-        <v>6</v>
+      <c r="A98" s="7">
+        <v>5</v>
       </c>
       <c r="B98" s="85" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D98" s="86" t="s">
         <v>189</v>
       </c>
       <c r="E98" s="41">
-        <v>43248</v>
+        <v>43236</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="7">
-        <v>7</v>
+      <c r="A99" s="4">
+        <v>6</v>
       </c>
       <c r="B99" s="85" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D99" s="86" t="s">
         <v>189</v>
       </c>
       <c r="E99" s="41">
-        <v>42422</v>
+        <v>43248</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B100" s="85" t="s">
-        <v>200</v>
-      </c>
-      <c r="C100" s="87" t="s">
-        <v>201</v>
+        <v>198</v>
+      </c>
+      <c r="C100" s="52" t="s">
+        <v>199</v>
       </c>
       <c r="D100" s="86" t="s">
         <v>189</v>
       </c>
       <c r="E100" s="41">
+        <v>42422</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="7">
+        <v>8</v>
+      </c>
+      <c r="B101" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="C101" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="E101" s="41">
         <v>42201</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="4">
+    <row r="102" spans="1:5">
+      <c r="A102" s="4">
         <v>9</v>
       </c>
-      <c r="B101" s="88" t="s">
+      <c r="B102" s="88" t="s">
         <v>202</v>
       </c>
-      <c r="C101" s="89" t="s">
+      <c r="C102" s="89" t="s">
         <v>203</v>
-      </c>
-      <c r="D101" s="90" t="s">
-        <v>189</v>
-      </c>
-      <c r="E101" s="91">
-        <v>42789</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="7">
-        <v>10</v>
-      </c>
-      <c r="B102" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="C102" s="89" t="s">
-        <v>205</v>
       </c>
       <c r="D102" s="90" t="s">
         <v>189</v>
       </c>
       <c r="E102" s="91">
-        <v>42425</v>
+        <v>42789</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="7">
+        <v>10</v>
+      </c>
+      <c r="B103" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" s="89" t="s">
+        <v>205</v>
+      </c>
+      <c r="D103" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="E103" s="91">
+        <v>42425</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="7">
         <v>11</v>
       </c>
-      <c r="B103" s="85" t="s">
+      <c r="B104" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="C103" s="87" t="s">
+      <c r="C104" s="87" t="s">
         <v>207</v>
-      </c>
-      <c r="D103" s="86" t="s">
-        <v>189</v>
-      </c>
-      <c r="E103" s="41">
-        <v>42422</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="4">
-        <v>12</v>
-      </c>
-      <c r="B104" s="85" t="s">
-        <v>208</v>
-      </c>
-      <c r="C104" s="87" t="s">
-        <v>209</v>
       </c>
       <c r="D104" s="86" t="s">
         <v>189</v>
       </c>
       <c r="E104" s="41">
-        <v>40462</v>
+        <v>42422</v>
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="7">
-        <v>13</v>
+      <c r="A105" s="4">
+        <v>12</v>
       </c>
       <c r="B105" s="85" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C105" s="87" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D105" s="86" t="s">
         <v>189</v>
       </c>
       <c r="E105" s="41">
-        <v>43232</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" s="118" customFormat="1">
+        <v>40462</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B106" s="85" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C106" s="87" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D106" s="86" t="s">
         <v>189</v>
       </c>
       <c r="E106" s="41">
-        <v>43720</v>
+        <v>43232</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="118" customFormat="1">
-      <c r="A107" s="4">
-        <v>15</v>
+      <c r="A107" s="7">
+        <v>14</v>
       </c>
       <c r="B107" s="85" t="s">
-        <v>214</v>
-      </c>
-      <c r="C107" s="119" t="s">
-        <v>215</v>
+        <v>212</v>
+      </c>
+      <c r="C107" s="87" t="s">
+        <v>213</v>
       </c>
       <c r="D107" s="86" t="s">
         <v>189</v>
@@ -5009,32 +5015,32 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="7">
-        <v>16</v>
-      </c>
-      <c r="B108" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C108" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="D108" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E108" s="25">
-        <v>43598</v>
+    <row r="108" spans="1:5" s="118" customFormat="1">
+      <c r="A108" s="4">
+        <v>15</v>
+      </c>
+      <c r="B108" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="C108" s="119" t="s">
+        <v>215</v>
+      </c>
+      <c r="D108" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="E108" s="41">
+        <v>43720</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D109" s="38" t="s">
         <v>118</v>
@@ -5044,427 +5050,425 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="2"/>
-      <c r="B110" s="3"/>
-      <c r="D110" s="3" t="s">
+      <c r="A110" s="7">
+        <v>17</v>
+      </c>
+      <c r="B110" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C110" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E110" s="25">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="2"/>
+      <c r="B111" s="3"/>
+      <c r="D111" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="4">
-        <v>1</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C111" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E111" s="6">
-        <v>38838</v>
-      </c>
+      <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E112" s="6">
-        <v>41967</v>
+        <v>38838</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="4">
-        <v>3</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="D113" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="E113" s="9">
-        <v>43232</v>
+      <c r="E113" s="6">
+        <v>41967</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>387</v>
+        <v>216</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>385</v>
       </c>
       <c r="E114" s="9">
-        <v>42066</v>
+        <v>43232</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E115" s="10">
-        <v>42522</v>
+      <c r="E115" s="9">
+        <v>42066</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="4">
-        <v>6</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>391</v>
+        <v>5</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>389</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>385</v>
       </c>
       <c r="E116" s="10">
-        <v>42731</v>
+        <v>42522</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="4">
-        <v>7</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>393</v>
+        <v>6</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>391</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E117" s="11">
-        <v>42522</v>
+      <c r="E117" s="10">
+        <v>42731</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="4">
-        <v>8</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>395</v>
+        <v>7</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E118" s="10">
-        <v>42415</v>
+      <c r="E118" s="11">
+        <v>42522</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D119" s="8" t="s">
         <v>385</v>
       </c>
       <c r="E119" s="10">
-        <v>43619</v>
+        <v>42415</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>385</v>
       </c>
       <c r="E120" s="10">
-        <v>43620</v>
+        <v>43619</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="4">
-        <v>11</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>401</v>
+        <v>10</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E121" s="9">
-        <v>42422</v>
+      <c r="E121" s="10">
+        <v>43620</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="4">
+        <v>11</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E122" s="9">
+        <v>42422</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="4">
         <v>12</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B123" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C123" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="D122" s="8" t="s">
+      <c r="D123" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="E122" s="9">
+      <c r="E123" s="9">
         <v>41640</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="12" customHeight="1">
-      <c r="A123" s="2"/>
-      <c r="D123" s="128" t="s">
+    <row r="124" spans="1:5" ht="12" customHeight="1">
+      <c r="A124" s="2"/>
+      <c r="D124" s="128" t="s">
         <v>490</v>
       </c>
-      <c r="E123" s="129"/>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="120">
-        <v>1</v>
-      </c>
-      <c r="B124" s="92" t="s">
-        <v>380</v>
-      </c>
-      <c r="C124" s="93" t="str">
-        <f>VLOOKUP(B124,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Nguyễn Văn Chiến</v>
-      </c>
-      <c r="D124" s="93" t="str">
-        <f>VLOOKUP(B124,'[2]Mã NV'!$A$2:$C$14,3,0)</f>
-        <v>Công nhân</v>
-      </c>
-      <c r="E124" s="94">
-        <v>40561</v>
-      </c>
+      <c r="E124" s="129"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125" s="92" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C125" s="93" t="str">
         <f>VLOOKUP(B125,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Ngô Văn Thanh</v>
+        <v>Nguyễn Văn Chiến</v>
       </c>
       <c r="D125" s="93" t="str">
         <f>VLOOKUP(B125,'[2]Mã NV'!$A$2:$C$14,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E125" s="94">
-        <v>40596</v>
+        <v>40561</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B126" s="92" t="s">
-        <v>474</v>
+        <v>383</v>
       </c>
       <c r="C126" s="93" t="str">
         <f>VLOOKUP(B126,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Võ Văn Giàu</v>
+        <v>Ngô Văn Thanh</v>
       </c>
       <c r="D126" s="93" t="str">
         <f>VLOOKUP(B126,'[2]Mã NV'!$A$2:$C$14,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E126" s="94">
-        <v>42415</v>
+        <v>40596</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B127" s="92" t="s">
-        <v>216</v>
+        <v>474</v>
       </c>
       <c r="C127" s="93" t="str">
         <f>VLOOKUP(B127,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Lê Phi Trung</v>
+        <v>Võ Văn Giàu</v>
       </c>
       <c r="D127" s="93" t="str">
         <f>VLOOKUP(B127,'[2]Mã NV'!$A$2:$C$14,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E127" s="94">
-        <v>42419</v>
+        <v>42415</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="120">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128" s="92" t="s">
-        <v>475</v>
+        <v>216</v>
       </c>
       <c r="C128" s="93" t="str">
         <f>VLOOKUP(B128,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Lâm Văn Thương</v>
+        <v>Lê Phi Trung</v>
       </c>
       <c r="D128" s="93" t="str">
         <f>VLOOKUP(B128,'[2]Mã NV'!$A$2:$C$14,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E128" s="94">
-        <v>42420</v>
+        <v>42419</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="120">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B129" s="92" t="s">
-        <v>387</v>
+        <v>475</v>
       </c>
       <c r="C129" s="93" t="str">
         <f>VLOOKUP(B129,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Võ Văn Có</v>
+        <v>Lâm Văn Thương</v>
       </c>
       <c r="D129" s="93" t="str">
         <f>VLOOKUP(B129,'[2]Mã NV'!$A$2:$C$14,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E129" s="94">
-        <v>42424</v>
+        <v>42420</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="120">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B130" s="92" t="s">
-        <v>476</v>
+        <v>387</v>
       </c>
       <c r="C130" s="93" t="str">
         <f>VLOOKUP(B130,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Lê Minh Nghĩa</v>
+        <v>Võ Văn Có</v>
       </c>
       <c r="D130" s="93" t="str">
         <f>VLOOKUP(B130,'[2]Mã NV'!$A$2:$C$14,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E130" s="94">
-        <v>42522</v>
+        <v>42424</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="120">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B131" s="92" t="s">
-        <v>389</v>
+        <v>476</v>
       </c>
       <c r="C131" s="93" t="str">
         <f>VLOOKUP(B131,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Trần Văn Tây</v>
+        <v>Lê Minh Nghĩa</v>
       </c>
       <c r="D131" s="93" t="str">
         <f>VLOOKUP(B131,'[2]Mã NV'!$A$2:$C$14,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E131" s="94">
-        <v>42528</v>
+        <v>42522</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="120">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B132" s="92" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C132" s="93" t="str">
         <f>VLOOKUP(B132,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Huỳnh Huy Phụng</v>
+        <v>Trần Văn Tây</v>
       </c>
       <c r="D132" s="93" t="str">
         <f>VLOOKUP(B132,'[2]Mã NV'!$A$2:$C$14,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E132" s="94">
-        <v>42732</v>
+        <v>42528</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="120">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B133" s="92" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C133" s="93" t="str">
         <f>VLOOKUP(B133,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Lê Hiệp</v>
+        <v>Huỳnh Huy Phụng</v>
       </c>
       <c r="D133" s="93" t="str">
         <f>VLOOKUP(B133,'[2]Mã NV'!$A$2:$C$14,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E133" s="94">
-        <v>43159</v>
+        <v>42732</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="120">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B134" s="92" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C134" s="93" t="str">
         <f>VLOOKUP(B134,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Lê Văn Bi</v>
+        <v>Lê Hiệp</v>
       </c>
       <c r="D134" s="93" t="str">
-        <f>VLOOKUP(B134,'[2]Mã NV'!$A$2:$C$71,3,0)</f>
+        <f>VLOOKUP(B134,'[2]Mã NV'!$A$2:$C$14,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E134" s="94">
@@ -5473,90 +5477,90 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="120">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B135" s="92" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C135" s="93" t="str">
         <f>VLOOKUP(B135,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Trần Anh Dũ</v>
+        <v>Lê Văn Bi</v>
       </c>
       <c r="D135" s="93" t="str">
         <f>VLOOKUP(B135,'[2]Mã NV'!$A$2:$C$71,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E135" s="94">
-        <v>43230</v>
+        <v>43159</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="120">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B136" s="92" t="s">
-        <v>411</v>
-      </c>
-      <c r="C136" s="95" t="str">
+        <v>409</v>
+      </c>
+      <c r="C136" s="93" t="str">
         <f>VLOOKUP(B136,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Thạch Ngọc Tiến</v>
+        <v>Trần Anh Dũ</v>
       </c>
       <c r="D136" s="93" t="str">
         <f>VLOOKUP(B136,'[2]Mã NV'!$A$2:$C$71,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E136" s="94">
-        <v>43410</v>
+        <v>43230</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="120">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B137" s="92" t="s">
-        <v>477</v>
-      </c>
-      <c r="C137" s="93" t="str">
+        <v>411</v>
+      </c>
+      <c r="C137" s="95" t="str">
         <f>VLOOKUP(B137,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Nguyễn Tuấn Vinh</v>
+        <v>Thạch Ngọc Tiến</v>
       </c>
       <c r="D137" s="93" t="str">
         <f>VLOOKUP(B137,'[2]Mã NV'!$A$2:$C$71,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E137" s="94">
-        <v>43416</v>
+        <v>43410</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="120">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B138" s="92" t="s">
-        <v>413</v>
+        <v>477</v>
       </c>
       <c r="C138" s="93" t="str">
         <f>VLOOKUP(B138,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Trần Thanh Nguyên</v>
+        <v>Nguyễn Tuấn Vinh</v>
       </c>
       <c r="D138" s="93" t="str">
         <f>VLOOKUP(B138,'[2]Mã NV'!$A$2:$C$71,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E138" s="94">
-        <v>43413</v>
+        <v>43416</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="120">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B139" s="92" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C139" s="93" t="str">
         <f>VLOOKUP(B139,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Lê Nhật Trường Giang</v>
+        <v>Trần Thanh Nguyên</v>
       </c>
       <c r="D139" s="93" t="str">
         <f>VLOOKUP(B139,'[2]Mã NV'!$A$2:$C$71,3,0)</f>
@@ -5568,719 +5572,721 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="120">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B140" s="92" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C140" s="93" t="str">
         <f>VLOOKUP(B140,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Thạch Ngọc Thắng</v>
+        <v>Lê Nhật Trường Giang</v>
       </c>
       <c r="D140" s="93" t="str">
         <f>VLOOKUP(B140,'[2]Mã NV'!$A$2:$C$71,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E140" s="94">
-        <v>43419</v>
+        <v>43413</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="120">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B141" s="92" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C141" s="93" t="str">
         <f>VLOOKUP(B141,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Dương Tấn Đạt</v>
+        <v>Thạch Ngọc Thắng</v>
       </c>
       <c r="D141" s="93" t="str">
         <f>VLOOKUP(B141,'[2]Mã NV'!$A$2:$C$71,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E141" s="94">
-        <v>43441</v>
+        <v>43419</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="120">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B142" s="92" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C142" s="93" t="str">
         <f>VLOOKUP(B142,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Nguyễn Thanh Hùng</v>
+        <v>Dương Tấn Đạt</v>
       </c>
       <c r="D142" s="93" t="str">
         <f>VLOOKUP(B142,'[2]Mã NV'!$A$2:$C$71,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E142" s="94">
-        <v>43449</v>
+        <v>43441</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="120">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B143" s="92" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C143" s="93" t="str">
         <f>VLOOKUP(B143,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Đặng Văn Luân</v>
+        <v>Nguyễn Thanh Hùng</v>
       </c>
       <c r="D143" s="93" t="str">
         <f>VLOOKUP(B143,'[2]Mã NV'!$A$2:$C$71,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E143" s="94">
-        <v>43522</v>
+        <v>43449</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="120">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B144" s="92" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C144" s="93" t="str">
         <f>VLOOKUP(B144,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Phan Thanh Minh</v>
+        <v>Đặng Văn Luân</v>
       </c>
       <c r="D144" s="93" t="str">
         <f>VLOOKUP(B144,'[2]Mã NV'!$A$2:$C$71,3,0)</f>
         <v>Công nhân</v>
       </c>
       <c r="E144" s="94">
-        <v>43523</v>
+        <v>43522</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="120">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B145" s="92" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="C145" s="93" t="str">
         <f>VLOOKUP(B145,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
-        <v>Danh Vươl</v>
+        <v>Phan Thanh Minh</v>
       </c>
       <c r="D145" s="93" t="str">
         <f>VLOOKUP(B145,'[2]Mã NV'!$A$2:$C$71,3,0)</f>
+        <v>Công nhân</v>
+      </c>
+      <c r="E145" s="94">
+        <v>43523</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="120">
+        <v>22</v>
+      </c>
+      <c r="B146" s="92" t="s">
+        <v>478</v>
+      </c>
+      <c r="C146" s="93" t="str">
+        <f>VLOOKUP(B146,'[2]Mã NV'!$A$2:$C$71,2,0)</f>
+        <v>Danh Vươl</v>
+      </c>
+      <c r="D146" s="93" t="str">
+        <f>VLOOKUP(B146,'[2]Mã NV'!$A$2:$C$71,3,0)</f>
         <v>Đội trưởng</v>
       </c>
-      <c r="E145" s="94">
+      <c r="E146" s="94">
         <v>42770</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="30"/>
-      <c r="B146" s="31"/>
-      <c r="D146" s="32" t="s">
+    <row r="147" spans="1:5">
+      <c r="A147" s="30"/>
+      <c r="B147" s="31"/>
+      <c r="D147" s="32" t="s">
         <v>539</v>
       </c>
-      <c r="E146" s="33"/>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="4">
+      <c r="E147" s="33"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="4">
         <v>1</v>
       </c>
-      <c r="B147" s="36" t="s">
+      <c r="B148" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="C147" s="37" t="s">
+      <c r="C148" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="D147" s="67" t="s">
+      <c r="D148" s="67" t="s">
         <v>505</v>
       </c>
-      <c r="E147" s="25">
+      <c r="E148" s="25">
         <v>42969</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="30"/>
-      <c r="B148" s="31"/>
-      <c r="D148" s="32" t="s">
+    <row r="149" spans="1:5">
+      <c r="A149" s="30"/>
+      <c r="B149" s="31"/>
+      <c r="D149" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="E148" s="33"/>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="4">
-        <v>1</v>
-      </c>
-      <c r="B149" s="36" t="s">
-        <v>220</v>
-      </c>
-      <c r="C149" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="D149" s="38" t="s">
-        <v>506</v>
-      </c>
-      <c r="E149" s="25">
-        <v>42247</v>
-      </c>
+      <c r="E149" s="33"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B150" s="36" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D150" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E150" s="25">
-        <v>43535</v>
+        <v>42247</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="4">
+        <v>2</v>
+      </c>
+      <c r="B151" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C151" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="D151" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="E151" s="25">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="4">
         <v>3</v>
       </c>
-      <c r="B151" s="36" t="s">
+      <c r="B152" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="C151" s="37" t="s">
+      <c r="C152" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="D151" s="38" t="s">
+      <c r="D152" s="38" t="s">
         <v>508</v>
       </c>
-      <c r="E151" s="25">
+      <c r="E152" s="25">
         <v>43213</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="26">
-      <c r="A152" s="2"/>
-      <c r="B152" s="3"/>
-      <c r="D152" s="3" t="s">
+    <row r="153" spans="1:5" ht="26">
+      <c r="A153" s="2"/>
+      <c r="B153" s="3"/>
+      <c r="D153" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="E152" s="3"/>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="7">
-        <v>1</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="E153" s="9">
-        <v>43177</v>
-      </c>
+      <c r="E153" s="3"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>385</v>
+        <v>448</v>
       </c>
       <c r="E154" s="9">
-        <v>41786</v>
+        <v>43177</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C155" s="8" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D155" s="8" t="s">
         <v>385</v>
       </c>
       <c r="E155" s="9">
-        <v>40869</v>
+        <v>41786</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D156" s="8" t="s">
         <v>385</v>
       </c>
       <c r="E156" s="9">
-        <v>43453</v>
+        <v>40869</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>385</v>
       </c>
       <c r="E157" s="9">
-        <v>43458</v>
+        <v>43453</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>385</v>
       </c>
       <c r="E158" s="9">
-        <v>43523</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>385</v>
       </c>
       <c r="E159" s="9">
-        <v>43648</v>
+        <v>43523</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D160" s="8" t="s">
         <v>385</v>
       </c>
       <c r="E160" s="9">
+        <v>43648</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="7">
+        <v>8</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E161" s="9">
         <v>43697</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="30"/>
-      <c r="B161" s="31"/>
-      <c r="D161" s="32" t="s">
+    <row r="162" spans="1:5">
+      <c r="A162" s="30"/>
+      <c r="B162" s="31"/>
+      <c r="D162" s="32" t="s">
         <v>540</v>
       </c>
-      <c r="E161" s="33"/>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="4">
-        <v>1</v>
-      </c>
-      <c r="B162" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="C162" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="D162" s="38" t="s">
-        <v>509</v>
-      </c>
-      <c r="E162" s="25">
-        <v>43277</v>
-      </c>
+      <c r="E162" s="33"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B163" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="C163" s="53" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+      <c r="C163" s="37" t="s">
+        <v>227</v>
       </c>
       <c r="D163" s="38" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E163" s="25">
-        <v>42788</v>
+        <v>43277</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B164" s="36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C164" s="53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D164" s="38" t="s">
         <v>510</v>
       </c>
       <c r="E164" s="25">
-        <v>43252</v>
+        <v>42788</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B165" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C165" s="53" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D165" s="38" t="s">
         <v>510</v>
       </c>
       <c r="E165" s="25">
-        <v>43277</v>
+        <v>43252</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B166" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C166" s="53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D166" s="38" t="s">
         <v>510</v>
       </c>
       <c r="E166" s="25">
-        <v>43425</v>
+        <v>43277</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="4">
-        <v>6</v>
-      </c>
-      <c r="B167" s="96" t="s">
-        <v>236</v>
-      </c>
-      <c r="C167" s="97" t="s">
-        <v>237</v>
+        <v>5</v>
+      </c>
+      <c r="B167" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="C167" s="53" t="s">
+        <v>235</v>
       </c>
       <c r="D167" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="E167" s="58">
+      <c r="E167" s="25">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="4">
+        <v>6</v>
+      </c>
+      <c r="B168" s="96" t="s">
+        <v>236</v>
+      </c>
+      <c r="C168" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="D168" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="E168" s="58">
         <v>42064</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="30"/>
-      <c r="B168" s="31"/>
-      <c r="D168" s="32" t="s">
+    <row r="169" spans="1:5">
+      <c r="A169" s="30"/>
+      <c r="B169" s="31"/>
+      <c r="D169" s="32" t="s">
         <v>541</v>
       </c>
-      <c r="E168" s="33"/>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="4">
-        <v>1</v>
-      </c>
-      <c r="B169" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="C169" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="D169" s="38" t="s">
-        <v>512</v>
-      </c>
-      <c r="E169" s="25">
-        <v>42542</v>
-      </c>
+      <c r="E169" s="33"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="4">
+        <v>1</v>
+      </c>
+      <c r="B170" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C170" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D170" s="38" t="s">
+        <v>512</v>
+      </c>
+      <c r="E170" s="25">
+        <v>42542</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="4">
         <v>2</v>
       </c>
-      <c r="B170" s="36" t="s">
+      <c r="B171" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="C170" s="52" t="s">
+      <c r="C171" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="D170" s="38" t="s">
+      <c r="D171" s="38" t="s">
         <v>511</v>
       </c>
-      <c r="E170" s="25">
+      <c r="E171" s="25">
         <v>42443</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="2"/>
-      <c r="B171" s="3"/>
-      <c r="D171" s="3" t="s">
+    <row r="172" spans="1:5">
+      <c r="A172" s="2"/>
+      <c r="B172" s="3"/>
+      <c r="D172" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E171" s="3"/>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="4">
-        <v>1</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="E172" s="6">
-        <v>37622</v>
-      </c>
+      <c r="E172" s="3"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="4">
-        <v>2</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C173" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="D173" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="E173" s="9">
-        <v>41786</v>
+      <c r="E173" s="6">
+        <v>37622</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>409</v>
+        <v>240</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E174" s="9">
-        <v>41876</v>
+        <v>41786</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D175" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E175" s="9">
-        <v>41997</v>
+        <v>41876</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B176" s="8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D176" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E176" s="9">
-        <v>42371</v>
+        <v>41997</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C177" s="8" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D177" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E177" s="9">
-        <v>41321</v>
+        <v>42371</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D178" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E178" s="9">
-        <v>41852</v>
+        <v>41321</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E179" s="9">
-        <v>42066</v>
+        <v>41852</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C180" s="8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D180" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E180" s="9">
-        <v>37257</v>
+        <v>42066</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="E181" s="9">
-        <v>42078</v>
+        <v>37257</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
       <c r="E182" s="9">
-        <v>42522</v>
+        <v>42078</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="E183" s="9">
-        <v>43248</v>
+        <v>42522</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D184" s="8" t="s">
         <v>405</v>
@@ -6291,789 +6297,789 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D185" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E185" s="9">
-        <v>43246</v>
+        <v>43248</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D186" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E186" s="9">
-        <v>42789</v>
+        <v>43246</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D187" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E187" s="9">
-        <v>42375</v>
+        <v>42789</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>405</v>
       </c>
       <c r="E188" s="9">
-        <v>41956</v>
+        <v>42375</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="E189" s="12">
-        <v>42766</v>
+        <v>405</v>
+      </c>
+      <c r="E189" s="9">
+        <v>41956</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="4">
+        <v>18</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="E190" s="12">
+        <v>42766</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="4">
         <v>19</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="B191" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="C190" s="8" t="s">
+      <c r="C191" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="D190" s="8" t="s">
+      <c r="D191" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="E190" s="10">
+      <c r="E191" s="10">
         <v>42415</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="30"/>
-      <c r="B191" s="31"/>
-      <c r="D191" s="32" t="s">
+    <row r="192" spans="1:5">
+      <c r="A192" s="30"/>
+      <c r="B192" s="31"/>
+      <c r="D192" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="E191" s="33"/>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="4">
-        <v>1</v>
-      </c>
-      <c r="B192" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="C192" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="D192" s="98" t="s">
-        <v>514</v>
-      </c>
-      <c r="E192" s="25">
-        <v>38579</v>
-      </c>
+      <c r="E192" s="33"/>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="4">
-        <v>2</v>
-      </c>
-      <c r="B193" s="85" t="s">
-        <v>245</v>
-      </c>
-      <c r="C193" s="39" t="s">
-        <v>246</v>
-      </c>
-      <c r="D193" s="86" t="s">
-        <v>515</v>
-      </c>
-      <c r="E193" s="41">
-        <v>42415</v>
+        <v>1</v>
+      </c>
+      <c r="B193" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C193" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="D193" s="98" t="s">
+        <v>514</v>
+      </c>
+      <c r="E193" s="25">
+        <v>38579</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="4">
+        <v>2</v>
+      </c>
+      <c r="B194" s="85" t="s">
+        <v>245</v>
+      </c>
+      <c r="C194" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="D194" s="86" t="s">
+        <v>515</v>
+      </c>
+      <c r="E194" s="41">
+        <v>42415</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="4">
         <v>3</v>
       </c>
-      <c r="B194" s="36" t="s">
+      <c r="B195" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="C194" s="39" t="s">
+      <c r="C195" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="D194" s="86" t="s">
+      <c r="D195" s="86" t="s">
         <v>516</v>
       </c>
-      <c r="E194" s="41">
+      <c r="E195" s="41">
         <v>43369</v>
       </c>
     </row>
-    <row r="195" spans="1:5" s="118" customFormat="1">
-      <c r="A195" s="4">
+    <row r="196" spans="1:5" s="118" customFormat="1">
+      <c r="A196" s="4">
         <v>4</v>
       </c>
-      <c r="B195" s="36" t="s">
+      <c r="B196" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="C195" s="39" t="s">
+      <c r="C196" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="D195" s="86" t="s">
+      <c r="D196" s="86" t="s">
         <v>515</v>
       </c>
-      <c r="E195" s="41">
+      <c r="E196" s="41">
         <v>43696</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15" customHeight="1">
-      <c r="B196" s="122"/>
-      <c r="C196" s="121" t="s">
+    <row r="197" spans="1:5" ht="15" customHeight="1">
+      <c r="B197" s="122"/>
+      <c r="C197" s="121" t="s">
         <v>543</v>
       </c>
-      <c r="D196" s="122"/>
-      <c r="E196" s="123"/>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="4">
-        <v>1</v>
-      </c>
-      <c r="B197" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C197" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D197" s="38" t="s">
-        <v>544</v>
-      </c>
-      <c r="E197" s="25">
-        <v>42475</v>
-      </c>
+      <c r="D197" s="122"/>
+      <c r="E197" s="123"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B198" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C198" s="37" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D198" s="38" t="s">
-        <v>517</v>
+        <v>544</v>
       </c>
       <c r="E198" s="25">
-        <v>43222</v>
+        <v>42475</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B199" s="36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C199" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D199" s="38" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E199" s="25">
-        <v>43227</v>
+        <v>43222</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B200" s="36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C200" s="37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D200" s="38" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E200" s="25">
-        <v>43271</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="4">
+        <v>4</v>
+      </c>
+      <c r="B201" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C201" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D201" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="E201" s="25">
+        <v>43271</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="4">
         <v>5</v>
       </c>
-      <c r="B201" s="36" t="s">
+      <c r="B202" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C201" s="37" t="s">
+      <c r="C202" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="D201" s="100" t="s">
+      <c r="D202" s="100" t="s">
         <v>520</v>
       </c>
-      <c r="E201" s="25">
+      <c r="E202" s="25">
         <v>43647</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="46"/>
-      <c r="B202" s="47"/>
-      <c r="D202" s="99" t="s">
+    <row r="203" spans="1:5">
+      <c r="A203" s="46"/>
+      <c r="B203" s="47"/>
+      <c r="D203" s="99" t="s">
         <v>542</v>
       </c>
-      <c r="E202" s="33"/>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="1">
+      <c r="E203" s="33"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1">
         <v>1</v>
       </c>
-      <c r="B203" s="65" t="s">
+      <c r="B204" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="C203" s="73" t="s">
+      <c r="C204" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="D203" s="67" t="s">
+      <c r="D204" s="67" t="s">
         <v>521</v>
       </c>
-      <c r="E203" s="68">
+      <c r="E204" s="68">
         <v>42933</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="4">
+    <row r="205" spans="1:5">
+      <c r="A205" s="4">
         <v>2</v>
       </c>
-      <c r="B204" s="36" t="s">
+      <c r="B205" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="C204" s="52" t="s">
+      <c r="C205" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="D204" s="38" t="s">
+      <c r="D205" s="38" t="s">
         <v>522</v>
       </c>
-      <c r="E204" s="25">
+      <c r="E205" s="25">
         <v>43528</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
-      <c r="A205" s="14" t="s">
+    <row r="206" spans="1:5">
+      <c r="A206" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="C205" s="15"/>
-      <c r="D205" s="15"/>
-      <c r="E205" s="16"/>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="101">
+      <c r="C206" s="15"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="16"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="101">
         <v>1</v>
       </c>
-      <c r="B206" s="26" t="s">
+      <c r="B207" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="C206" s="26" t="s">
+      <c r="C207" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="D206" s="102" t="s">
+      <c r="D207" s="102" t="s">
         <v>486</v>
       </c>
-      <c r="E206" s="103">
+      <c r="E207" s="103">
         <v>43115</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="30"/>
-      <c r="B207" s="31"/>
-      <c r="C207" s="31" t="s">
+    <row r="208" spans="1:5">
+      <c r="A208" s="30"/>
+      <c r="B208" s="31"/>
+      <c r="C208" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="D207" s="32"/>
-      <c r="E207" s="33"/>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="4">
-        <v>1</v>
-      </c>
-      <c r="B208" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C208" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D208" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E208" s="25">
-        <v>40848</v>
-      </c>
+      <c r="D208" s="32"/>
+      <c r="E208" s="33"/>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="4">
-        <v>2</v>
-      </c>
-      <c r="B209" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C209" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D209" s="38" t="s">
-        <v>101</v>
+        <v>1</v>
+      </c>
+      <c r="B209" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C209" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D209" s="35" t="s">
+        <v>98</v>
       </c>
       <c r="E209" s="25">
-        <v>41487</v>
+        <v>40848</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B210" s="36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C210" s="37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D210" s="38" t="s">
         <v>101</v>
       </c>
       <c r="E210" s="25">
-        <v>42835</v>
+        <v>41487</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B211" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C211" s="37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D211" s="38" t="s">
-        <v>523</v>
+        <v>101</v>
       </c>
       <c r="E211" s="25">
-        <v>42565</v>
+        <v>42835</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="4">
+        <v>4</v>
+      </c>
+      <c r="B212" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C212" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D212" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="E212" s="25">
+        <v>42565</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="4">
         <v>5</v>
       </c>
-      <c r="B212" s="42" t="s">
+      <c r="B213" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="C212" s="49" t="s">
+      <c r="C213" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D212" s="44" t="s">
+      <c r="D213" s="44" t="s">
         <v>524</v>
       </c>
-      <c r="E212" s="45">
+      <c r="E213" s="45">
         <v>43732</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="104"/>
-      <c r="B213" s="105"/>
-      <c r="C213" s="29" t="s">
+    <row r="214" spans="1:5">
+      <c r="A214" s="104"/>
+      <c r="B214" s="105"/>
+      <c r="C214" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="D213" s="106"/>
-      <c r="E213" s="33"/>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="107">
-        <v>1</v>
-      </c>
-      <c r="B214" s="74" t="s">
-        <v>255</v>
-      </c>
-      <c r="C214" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="D214" s="108" t="s">
-        <v>257</v>
-      </c>
-      <c r="E214" s="68">
-        <v>42280</v>
-      </c>
+      <c r="D214" s="106"/>
+      <c r="E214" s="33"/>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="107">
+        <v>1</v>
+      </c>
+      <c r="B215" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="C215" s="74" t="s">
+        <v>256</v>
+      </c>
+      <c r="D215" s="108" t="s">
+        <v>257</v>
+      </c>
+      <c r="E215" s="68">
+        <v>42280</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="107">
         <v>2</v>
       </c>
-      <c r="B215" s="37" t="s">
+      <c r="B216" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="C215" s="37" t="s">
+      <c r="C216" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="D215" s="98" t="s">
+      <c r="D216" s="98" t="s">
         <v>525</v>
       </c>
-      <c r="E215" s="25">
+      <c r="E216" s="25">
         <v>43263</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A216" s="107">
+    <row r="217" spans="1:5" ht="13.5" customHeight="1">
+      <c r="A217" s="107">
         <v>3</v>
       </c>
-      <c r="B216" s="37" t="s">
+      <c r="B217" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="C216" s="37" t="s">
+      <c r="C217" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="D216" s="98" t="s">
+      <c r="D217" s="98" t="s">
         <v>526</v>
       </c>
-      <c r="E216" s="25">
+      <c r="E217" s="25">
         <v>43299</v>
       </c>
     </row>
-    <row r="217" spans="1:5" s="118" customFormat="1">
-      <c r="A217" s="107">
+    <row r="218" spans="1:5" s="118" customFormat="1">
+      <c r="A218" s="107">
         <v>4</v>
       </c>
-      <c r="B217" s="37" t="s">
+      <c r="B218" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="C217" s="37" t="s">
+      <c r="C218" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="D217" s="98" t="s">
+      <c r="D218" s="98" t="s">
         <v>525</v>
       </c>
-      <c r="E217" s="25">
+      <c r="E218" s="25">
         <v>43654</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="30"/>
-      <c r="B218" s="109"/>
-      <c r="C218" s="110" t="s">
+    <row r="219" spans="1:5">
+      <c r="A219" s="30"/>
+      <c r="B219" s="109"/>
+      <c r="C219" s="110" t="s">
         <v>482</v>
       </c>
-      <c r="D218" s="111"/>
-      <c r="E218" s="33"/>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="4">
+      <c r="D219" s="111"/>
+      <c r="E219" s="33"/>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="4">
         <v>1</v>
       </c>
-      <c r="B219" s="37" t="s">
+      <c r="B220" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="C219" s="37" t="s">
+      <c r="C220" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="D219" s="98" t="str">
+      <c r="D220" s="98" t="str">
         <f>'[3]THANG B.LUONG'!$B$60</f>
         <v>Sale admin</v>
       </c>
-      <c r="E219" s="25">
+      <c r="E220" s="25">
         <v>42513</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="107">
-        <v>2</v>
-      </c>
-      <c r="B220" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="C220" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="D220" s="98" t="s">
-        <v>266</v>
-      </c>
-      <c r="E220" s="25">
-        <v>39508</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B221" s="37" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C221" s="37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D221" s="98" t="s">
         <v>266</v>
       </c>
       <c r="E221" s="25">
-        <v>42639</v>
+        <v>39508</v>
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="4">
-        <v>4</v>
+      <c r="A222" s="107">
+        <v>3</v>
       </c>
       <c r="B222" s="37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C222" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D222" s="98" t="s">
         <v>266</v>
       </c>
       <c r="E222" s="25">
-        <v>42786</v>
+        <v>42639</v>
       </c>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="107">
-        <v>5</v>
+      <c r="A223" s="4">
+        <v>4</v>
       </c>
       <c r="B223" s="37" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C223" s="37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D223" s="98" t="s">
         <v>266</v>
       </c>
       <c r="E223" s="25">
-        <v>43229</v>
+        <v>42786</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="107">
+        <v>5</v>
+      </c>
+      <c r="B224" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="C224" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="D224" s="98" t="s">
+        <v>266</v>
+      </c>
+      <c r="E224" s="25">
+        <v>43229</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="107">
         <v>6</v>
       </c>
-      <c r="B224" s="74" t="s">
+      <c r="B225" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="C224" s="74" t="s">
+      <c r="C225" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="D224" s="108" t="str">
+      <c r="D225" s="108" t="str">
         <f>'[1]THANG B.LUONG'!B74</f>
         <v>Trưởng sale TP</v>
       </c>
-      <c r="E224" s="68">
+      <c r="E225" s="68">
         <v>43206</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
-      <c r="A225" s="4">
+    <row r="226" spans="1:5">
+      <c r="A226" s="4">
         <v>7</v>
       </c>
-      <c r="B225" s="37" t="s">
+      <c r="B226" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="C225" s="37" t="s">
+      <c r="C226" s="37" t="s">
         <v>276</v>
-      </c>
-      <c r="D225" s="98" t="s">
-        <v>266</v>
-      </c>
-      <c r="E225" s="25">
-        <v>43561</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="107">
-        <v>8</v>
-      </c>
-      <c r="B226" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="C226" s="37" t="s">
-        <v>278</v>
       </c>
       <c r="D226" s="98" t="s">
         <v>266</v>
       </c>
       <c r="E226" s="25">
-        <v>43244</v>
+        <v>43561</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="107">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B227" s="37" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C227" s="37" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D227" s="98" t="s">
         <v>266</v>
       </c>
       <c r="E227" s="25">
-        <v>43262</v>
+        <v>43244</v>
       </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="4">
-        <v>10</v>
+      <c r="A228" s="107">
+        <v>9</v>
       </c>
       <c r="B228" s="37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C228" s="37" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D228" s="98" t="s">
         <v>266</v>
       </c>
       <c r="E228" s="25">
+        <v>43262</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="4">
+        <v>10</v>
+      </c>
+      <c r="B229" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="C229" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="D229" s="98" t="s">
+        <v>266</v>
+      </c>
+      <c r="E229" s="25">
         <v>43568</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="107">
-        <v>11</v>
-      </c>
-      <c r="B229" s="49" t="s">
-        <v>283</v>
-      </c>
-      <c r="C229" s="49" t="s">
-        <v>284</v>
-      </c>
-      <c r="D229" s="112" t="s">
-        <v>266</v>
-      </c>
-      <c r="E229" s="45">
-        <v>43685</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="107">
+        <v>11</v>
+      </c>
+      <c r="B230" s="49" t="s">
+        <v>283</v>
+      </c>
+      <c r="C230" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="D230" s="112" t="s">
+        <v>266</v>
+      </c>
+      <c r="E230" s="45">
+        <v>43685</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="107">
         <v>12</v>
       </c>
-      <c r="B230" s="74" t="s">
+      <c r="B231" s="74" t="s">
         <v>285</v>
       </c>
-      <c r="C230" s="74" t="s">
+      <c r="C231" s="74" t="s">
         <v>286</v>
       </c>
-      <c r="D230" s="108" t="str">
+      <c r="D231" s="108" t="str">
         <f>'[1]THANG B.LUONG'!B74</f>
         <v>Trưởng sale TP</v>
       </c>
-      <c r="E230" s="68">
+      <c r="E231" s="68">
         <v>43234</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="4">
+    <row r="232" spans="1:5">
+      <c r="A232" s="4">
         <v>13</v>
       </c>
-      <c r="B231" s="37" t="s">
+      <c r="B232" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="C231" s="37" t="s">
+      <c r="C232" s="37" t="s">
         <v>288</v>
-      </c>
-      <c r="D231" s="98" t="s">
-        <v>266</v>
-      </c>
-      <c r="E231" s="25">
-        <v>43206</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="107">
-        <v>14</v>
-      </c>
-      <c r="B232" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="C232" s="37" t="s">
-        <v>290</v>
       </c>
       <c r="D232" s="98" t="s">
         <v>266</v>
       </c>
       <c r="E232" s="25">
-        <v>43216</v>
+        <v>43206</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="107">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B233" s="37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C233" s="37" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D233" s="98" t="s">
         <v>266</v>
       </c>
       <c r="E233" s="25">
-        <v>43252</v>
+        <v>43216</v>
       </c>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="4">
-        <v>16</v>
+      <c r="A234" s="107">
+        <v>15</v>
       </c>
       <c r="B234" s="37" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C234" s="37" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D234" s="98" t="s">
         <v>266</v>
@@ -7083,722 +7089,739 @@
       </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="107">
+      <c r="A235" s="4">
+        <v>16</v>
+      </c>
+      <c r="B235" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C235" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D235" s="98" t="s">
+        <v>266</v>
+      </c>
+      <c r="E235" s="25">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="107">
         <v>17</v>
       </c>
-      <c r="B235" s="74" t="s">
+      <c r="B236" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="C235" s="74" t="s">
+      <c r="C236" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="D235" s="108" t="s">
+      <c r="D236" s="108" t="s">
         <v>297</v>
       </c>
-      <c r="E235" s="68">
+      <c r="E236" s="68">
         <v>43539</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="28"/>
-      <c r="B236" s="109"/>
-      <c r="C236" s="113" t="s">
+    <row r="237" spans="1:5">
+      <c r="A237" s="28"/>
+      <c r="B237" s="109"/>
+      <c r="C237" s="113" t="s">
         <v>298</v>
       </c>
-      <c r="D236" s="111"/>
-      <c r="E236" s="33"/>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="4">
+      <c r="D237" s="111"/>
+      <c r="E237" s="33"/>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="4">
         <v>1</v>
       </c>
-      <c r="B237" s="37" t="s">
+      <c r="B238" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="C237" s="37" t="s">
+      <c r="C238" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="D237" s="98" t="str">
+      <c r="D238" s="98" t="str">
         <f>'[3]THANG B.LUONG'!$B$65</f>
         <v>Trưởng đội vận chuyển</v>
       </c>
-      <c r="E237" s="25">
+      <c r="E238" s="25">
         <v>39539</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="4">
+    <row r="239" spans="1:5">
+      <c r="A239" s="4">
         <v>2</v>
       </c>
-      <c r="B238" s="37" t="s">
+      <c r="B239" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="C238" s="37" t="s">
+      <c r="C239" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="D238" s="40" t="str">
+      <c r="D239" s="40" t="str">
         <f>'[1]THANG B.LUONG'!$B$51</f>
         <v>Tài xế</v>
       </c>
-      <c r="E238" s="25">
+      <c r="E239" s="25">
         <v>40486</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="4">
-        <v>3</v>
-      </c>
-      <c r="B239" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="C239" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="D239" s="86" t="s">
-        <v>305</v>
-      </c>
-      <c r="E239" s="25">
-        <v>41682</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B240" s="37" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C240" s="37" t="s">
-        <v>307</v>
-      </c>
-      <c r="D240" s="40" t="str">
-        <f>'[1]THANG B.LUONG'!$B$51</f>
-        <v>Tài xế</v>
+        <v>304</v>
+      </c>
+      <c r="D240" s="86" t="s">
+        <v>305</v>
       </c>
       <c r="E240" s="25">
-        <v>42248</v>
+        <v>41682</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B241" s="37" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C241" s="37" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D241" s="40" t="str">
         <f>'[1]THANG B.LUONG'!$B$51</f>
         <v>Tài xế</v>
       </c>
       <c r="E241" s="25">
-        <v>42597</v>
+        <v>42248</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B242" s="37" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C242" s="37" t="s">
-        <v>311</v>
-      </c>
-      <c r="D242" s="38" t="str">
+        <v>309</v>
+      </c>
+      <c r="D242" s="40" t="str">
         <f>'[1]THANG B.LUONG'!$B$51</f>
         <v>Tài xế</v>
       </c>
       <c r="E242" s="25">
-        <v>42441</v>
+        <v>42597</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B243" s="37" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C243" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="D243" s="40" t="str">
+        <v>311</v>
+      </c>
+      <c r="D243" s="38" t="str">
         <f>'[1]THANG B.LUONG'!$B$51</f>
         <v>Tài xế</v>
       </c>
       <c r="E243" s="25">
-        <v>42788</v>
+        <v>42441</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B244" s="37" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C244" s="37" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D244" s="40" t="str">
         <f>'[1]THANG B.LUONG'!$B$51</f>
         <v>Tài xế</v>
       </c>
       <c r="E244" s="25">
-        <v>42805</v>
+        <v>42788</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B245" s="37" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C245" s="37" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D245" s="40" t="str">
         <f>'[1]THANG B.LUONG'!$B$51</f>
         <v>Tài xế</v>
       </c>
       <c r="E245" s="25">
-        <v>43175</v>
+        <v>42805</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B246" s="37" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C246" s="37" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D246" s="40" t="str">
         <f>'[1]THANG B.LUONG'!$B$51</f>
         <v>Tài xế</v>
       </c>
       <c r="E246" s="25">
-        <v>43210</v>
+        <v>43175</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B247" s="37" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C247" s="37" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D247" s="40" t="str">
         <f>'[1]THANG B.LUONG'!$B$51</f>
         <v>Tài xế</v>
       </c>
       <c r="E247" s="25">
-        <v>43358</v>
+        <v>43210</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B248" s="37" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C248" s="37" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D248" s="40" t="str">
         <f>'[1]THANG B.LUONG'!$B$51</f>
         <v>Tài xế</v>
       </c>
       <c r="E248" s="25">
+        <v>43358</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="4">
+        <v>12</v>
+      </c>
+      <c r="B249" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="C249" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="D249" s="40" t="str">
+        <f>'[1]THANG B.LUONG'!$B$51</f>
+        <v>Tài xế</v>
+      </c>
+      <c r="E249" s="25">
         <v>43444</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="28"/>
-      <c r="B249" s="105"/>
-      <c r="C249" s="29" t="s">
+    <row r="250" spans="1:5">
+      <c r="A250" s="28"/>
+      <c r="B250" s="105"/>
+      <c r="C250" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="D249" s="106"/>
-      <c r="E249" s="33"/>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" s="4">
-        <v>1</v>
-      </c>
-      <c r="B250" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="C250" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="D250" s="98" t="str">
-        <f>'[1]THANG B.LUONG'!$B$55</f>
-        <v>NV Giao nhận/ Phụ xe</v>
-      </c>
-      <c r="E250" s="25">
-        <v>42217</v>
-      </c>
+      <c r="D250" s="106"/>
+      <c r="E250" s="33"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B251" s="37" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C251" s="37" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D251" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E251" s="25">
-        <v>42689</v>
+        <v>42217</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B252" s="37" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C252" s="37" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D252" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E252" s="25">
-        <v>42923</v>
+        <v>42689</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B253" s="37" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C253" s="37" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D253" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E253" s="25">
-        <v>42998</v>
+        <v>42923</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B254" s="37" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C254" s="37" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D254" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E254" s="25">
-        <v>43004</v>
+        <v>42998</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B255" s="37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C255" s="37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D255" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E255" s="25">
-        <v>43157</v>
+        <v>43004</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B256" s="37" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C256" s="37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D256" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E256" s="25">
-        <v>43171</v>
+        <v>43157</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B257" s="37" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C257" s="37" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D257" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E257" s="25">
-        <v>43222</v>
+        <v>43171</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B258" s="37" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C258" s="37" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D258" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E258" s="25">
-        <v>43277</v>
+        <v>43222</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B259" s="37" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C259" s="37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D259" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E259" s="25">
-        <v>43339</v>
+        <v>43277</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B260" s="37" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C260" s="37" t="s">
-        <v>346</v>
-      </c>
-      <c r="D260" s="98" t="s">
-        <v>347</v>
+        <v>344</v>
+      </c>
+      <c r="D260" s="98" t="str">
+        <f>'[1]THANG B.LUONG'!$B$55</f>
+        <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E260" s="25">
-        <v>43358</v>
+        <v>43339</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B261" s="37" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C261" s="37" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D261" s="98" t="s">
         <v>347</v>
       </c>
       <c r="E261" s="25">
-        <v>43517</v>
+        <v>43358</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B262" s="37" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C262" s="37" t="s">
-        <v>351</v>
-      </c>
-      <c r="D262" s="98" t="str">
-        <f>'[1]THANG B.LUONG'!$B$55</f>
-        <v>NV Giao nhận/ Phụ xe</v>
+        <v>349</v>
+      </c>
+      <c r="D262" s="98" t="s">
+        <v>347</v>
       </c>
       <c r="E262" s="25">
-        <v>43458</v>
+        <v>43517</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B263" s="37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C263" s="37" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D263" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E263" s="25">
-        <v>43577</v>
+        <v>43458</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B264" s="37" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C264" s="37" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D264" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E264" s="25">
-        <v>43523</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" s="118" customFormat="1">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
       <c r="A265" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B265" s="37" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C265" s="37" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D265" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E265" s="25">
-        <v>43703</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>43523</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" s="118" customFormat="1">
       <c r="A266" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B266" s="37" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C266" s="37" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D266" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E266" s="25">
+        <v>43703</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="4">
+        <v>17</v>
+      </c>
+      <c r="B267" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="C267" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="D267" s="98" t="str">
+        <f>'[1]THANG B.LUONG'!$B$55</f>
+        <v>NV Giao nhận/ Phụ xe</v>
+      </c>
+      <c r="E267" s="25">
         <v>43535</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="28"/>
-      <c r="B267" s="105"/>
-      <c r="C267" s="29" t="s">
+    <row r="268" spans="1:5">
+      <c r="A268" s="28"/>
+      <c r="B268" s="105"/>
+      <c r="C268" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="D267" s="106"/>
-      <c r="E267" s="33"/>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="114">
+      <c r="D268" s="106"/>
+      <c r="E268" s="33"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="114">
         <v>1</v>
       </c>
-      <c r="B268" s="115" t="s">
+      <c r="B269" s="115" t="s">
         <v>361</v>
       </c>
-      <c r="C268" s="115" t="s">
+      <c r="C269" s="115" t="s">
         <v>362</v>
       </c>
-      <c r="D268" s="116" t="str">
+      <c r="D269" s="116" t="str">
         <f>'[3]THANG B.LUONG'!$B$68</f>
         <v>Trưởng đội giao nhận</v>
       </c>
-      <c r="E268" s="117">
+      <c r="E269" s="117">
         <v>41518</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" s="4">
-        <v>2</v>
-      </c>
-      <c r="B269" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="C269" s="37" t="s">
-        <v>364</v>
-      </c>
-      <c r="D269" s="98" t="str">
-        <f>'[1]THANG B.LUONG'!$B$55</f>
-        <v>NV Giao nhận/ Phụ xe</v>
-      </c>
-      <c r="E269" s="25">
-        <v>41842</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B270" s="37" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C270" s="37" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D270" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E270" s="25">
-        <v>42492</v>
+        <v>41842</v>
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="114">
-        <v>4</v>
+      <c r="A271" s="4">
+        <v>3</v>
       </c>
       <c r="B271" s="37" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C271" s="37" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D271" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E271" s="25">
-        <v>42808</v>
+        <v>42492</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="114">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B272" s="37" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C272" s="37" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D272" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E272" s="25">
-        <v>42877</v>
+        <v>42808</v>
       </c>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="4">
-        <v>6</v>
+      <c r="A273" s="114">
+        <v>5</v>
       </c>
       <c r="B273" s="37" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C273" s="37" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D273" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E273" s="25">
-        <v>41831</v>
+        <v>42877</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B274" s="37" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C274" s="37" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D274" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E274" s="25">
-        <v>43525</v>
+        <v>41831</v>
       </c>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="114">
-        <v>8</v>
+      <c r="A275" s="4">
+        <v>7</v>
       </c>
       <c r="B275" s="37" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C275" s="37" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D275" s="98" t="str">
         <f>'[1]THANG B.LUONG'!$B$55</f>
         <v>NV Giao nhận/ Phụ xe</v>
       </c>
       <c r="E275" s="25">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="114">
+        <v>8</v>
+      </c>
+      <c r="B276" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="C276" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="D276" s="98" t="str">
+        <f>'[1]THANG B.LUONG'!$B$55</f>
+        <v>NV Giao nhận/ Phụ xe</v>
+      </c>
+      <c r="E276" s="25">
         <v>43259</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
-    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E64"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A8:E8"/>
   </mergeCells>
